--- a/سرویس های دوره ای تجهیزات گندله سازی/در دست بررسی/class-group-vlockup.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/در دست بررسی/class-group-vlockup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heidaralavi\Documents\GitHub\tasvinshodeha-pm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\در دست بررسی\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA849F-61B7-4EB1-9173-3E1A4FEF12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetCategory" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="803">
   <si>
     <t>FullCategoryName</t>
   </si>
@@ -2433,7 +2434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2494,14 +2495,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E280" totalsRowShown="0">
-  <autoFilter ref="A1:E280"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E280" totalsRowShown="0">
+  <autoFilter ref="A1:E280" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Class"/>
-    <tableColumn id="2" name="Group"/>
-    <tableColumn id="3" name="class-group"/>
-    <tableColumn id="4" name="FullCategoryName"/>
-    <tableColumn id="5" name="App_Tag"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Class"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="class-group"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FullCategoryName"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="App_Tag"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2803,21 +2804,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="54.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="255" width="30.88671875" customWidth="1"/>
+    <col min="1" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="255" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>495</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3396,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3820,7 +3821,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -3956,7 +3957,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -4398,7 +4399,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>32</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -4619,7 +4620,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>34</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>37</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>43</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>44</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>46</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>46</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>46</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>46</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>46</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>46</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>47</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>48</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>48</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>48</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>48</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>48</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>48</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>49</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>49</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>50</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>50</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>50</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>50</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>50</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>38</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>51</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>51</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>53</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>53</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>53</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>53</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>53</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>53</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>53</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>53</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>53</v>
       </c>
@@ -5945,7 +5946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>53</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>53</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>53</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>53</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>53</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>53</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>53</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>53</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>53</v>
       </c>
@@ -6115,7 +6116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -6149,7 +6150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>54</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>54</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>54</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>55</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>55</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>55</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>55</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>55</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>55</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>55</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>56</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>56</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>56</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>56</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>56</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>56</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>56</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>56</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>56</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>56</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>56</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>56</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>56</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>56</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>56</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>56</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>56</v>
       </c>
@@ -6625,7 +6626,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>56</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>56</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>56</v>
       </c>
@@ -6676,7 +6677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>56</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>56</v>
       </c>
@@ -6710,7 +6711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>56</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>56</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>57</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>57</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>58</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>59</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>59</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>60</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>61</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>62</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>63</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>63</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>63</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>63</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>63</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>63</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>63</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>64</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>64</v>
       </c>
@@ -7067,7 +7068,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>65</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>65</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>65</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>65</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>65</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -7165,11 +7166,11 @@
       <c r="D256" t="s">
         <v>460</v>
       </c>
-      <c r="E256" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>66</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>66</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>66</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>66</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>66</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>66</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>66</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>66</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>66</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>66</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>66</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>66</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>67</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>67</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>68</v>
       </c>
@@ -7424,7 +7425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>69</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>69</v>
       </c>
@@ -7475,7 +7476,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>69</v>
       </c>
@@ -7492,7 +7493,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>18</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>65</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>70</v>
       </c>
